--- a/Auswertung_Studie_Nutzungsform_aktualisiert.xlsx
+++ b/Auswertung_Studie_Nutzungsform_aktualisiert.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saski\Documents\2025\MB\WiSe2526\MMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mweiler\Documents\GitHub\MMI_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5D70D-6B18-4784-8498-28AFFA715A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCC3DE1-A67D-4AD5-9841-734DEEAA4F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-15540" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstTry" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(Final!$D$2,Final!$D$5:$D$9,Final!$D$13:$D$14,Final!$D$16,Final!$D$18:$D$20,Final!$D$22:$D$23,Final!$D$26:$D$27)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Final!$D$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(Final!$D$17,Final!$D$21,Final!$D$24:$D$25)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(Final!$D$17,Final!$D$21,Final!$D$24:$D$25)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">(Final!$D$3:$D$4,Final!$D$11:$D$12,Final!$D$16)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -279,18 +286,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -423,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -465,7 +466,6 @@
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -503,7 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -793,32 +792,32 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -960,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1313,48 +1312,48 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="14" width="3.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="20" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" customWidth="1"/>
     <col min="21" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" customWidth="1"/>
-    <col min="30" max="30" width="9.44140625" customWidth="1"/>
-    <col min="31" max="31" width="5.109375" customWidth="1"/>
-    <col min="32" max="32" width="6.5546875" customWidth="1"/>
-    <col min="33" max="34" width="4.5546875" customWidth="1"/>
-    <col min="35" max="35" width="6.5546875" customWidth="1"/>
-    <col min="36" max="36" width="14.5546875" customWidth="1"/>
-    <col min="37" max="37" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.109375" customWidth="1"/>
-    <col min="39" max="41" width="6.33203125" customWidth="1"/>
-    <col min="42" max="42" width="7.109375" customWidth="1"/>
-    <col min="43" max="43" width="10.5546875" customWidth="1"/>
-    <col min="44" max="45" width="6.44140625" customWidth="1"/>
-    <col min="46" max="47" width="8.6640625" customWidth="1"/>
-    <col min="48" max="48" width="10.44140625" customWidth="1"/>
-    <col min="49" max="53" width="6.88671875" customWidth="1"/>
-    <col min="54" max="54" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" customWidth="1"/>
+    <col min="31" max="31" width="5.140625" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" customWidth="1"/>
+    <col min="33" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" customWidth="1"/>
+    <col min="39" max="41" width="6.28515625" customWidth="1"/>
+    <col min="42" max="42" width="7.140625" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" customWidth="1"/>
+    <col min="44" max="45" width="6.42578125" customWidth="1"/>
+    <col min="46" max="47" width="8.7109375" customWidth="1"/>
+    <col min="48" max="48" width="10.42578125" customWidth="1"/>
+    <col min="49" max="53" width="6.85546875" customWidth="1"/>
+    <col min="54" max="54" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -1370,10 +1369,10 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,73 +1382,73 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="29"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="30" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="27" t="s">
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="29"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="28"/>
       <c r="AJ1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AK1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="28" t="s">
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="27" t="s">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
       <c r="BB1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5"/>
@@ -1596,7 +1595,7 @@
       <c r="BB2" s="8"/>
       <c r="BC2" s="5"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1654,15 +1653,15 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="AD3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
       <c r="AI3" s="10"/>
       <c r="AJ3">
         <v>5</v>
@@ -1699,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24</v>
       </c>
@@ -1748,28 +1747,28 @@
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
+      <c r="U4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
       <c r="AI4" s="10"/>
       <c r="AJ4">
         <v>8</v>
@@ -1787,19 +1786,19 @@
         <v>46</v>
       </c>
       <c r="AO4" s="4"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV4" s="22"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV4" s="21"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4" t="s">
@@ -1814,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -1872,18 +1871,18 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="22"/>
+      <c r="AD5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="21"/>
       <c r="AJ5">
         <v>1</v>
       </c>
@@ -1897,14 +1896,14 @@
         <v>46</v>
       </c>
       <c r="AP5" s="4"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV5" s="22" t="s">
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="21" t="s">
         <v>46</v>
       </c>
       <c r="AW5" s="4"/>
@@ -1921,7 +1920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22</v>
       </c>
@@ -1979,15 +1978,15 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="10"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
+      <c r="AD6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
       <c r="AI6" s="10"/>
       <c r="AJ6">
         <v>8</v>
@@ -2024,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -2082,15 +2081,15 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
+      <c r="AD7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
       <c r="AI7" s="10"/>
       <c r="AJ7">
         <v>8</v>
@@ -2127,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -2174,28 +2173,28 @@
         <v>46</v>
       </c>
       <c r="T8" s="4"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
       <c r="AI8" s="10"/>
       <c r="AJ8">
         <v>8</v>
@@ -2232,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19</v>
       </c>
@@ -2270,7 +2269,7 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="24">
         <v>1</v>
       </c>
       <c r="Q9" s="4"/>
@@ -2335,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2900,7 +2899,7 @@
       <c r="O15">
         <v>6</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <v>1.5</v>
       </c>
       <c r="Q15" s="4" t="s">
@@ -2971,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3191,7 +3190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3229,7 +3228,7 @@
       <c r="O18">
         <v>10</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="25">
         <v>3.5</v>
       </c>
       <c r="Q18" s="4" t="s">
@@ -3296,7 +3295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3760,7 +3759,9 @@
       <c r="O23">
         <v>13</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="P23" s="32">
+        <v>3</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
         <v>46</v>
@@ -3831,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3844,7 +3845,7 @@
       <c r="D24" s="7">
         <v>139.9</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" s="9"/>
@@ -3938,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3961,7 +3962,7 @@
       <c r="H25">
         <v>180</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <v>87</v>
       </c>
       <c r="J25">
@@ -4047,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4218,10 +4219,10 @@
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="10"/>
-      <c r="AJ27" s="33">
+      <c r="AJ27">
         <v>1</v>
       </c>
-      <c r="AK27" s="34">
+      <c r="AK27" s="7">
         <v>1</v>
       </c>
       <c r="AL27" s="4"/>
@@ -4270,6 +4271,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C77408A9657D354AA2EA36B9C44B3D8B" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="35b7b4497c9b8f90ebc8a365f5a72516">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4073c1de-41dc-45a4-8e11-a80c309008b0" xmlns:ns3="013bd0e6-5a96-48c7-9517-6e2e630d5e76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10f9768fe295fb6f940ad6fb9ae135bb" ns2:_="" ns3:_="">
     <xsd:import namespace="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
@@ -4462,15 +4472,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4483,6 +4484,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E58085-4949-4757-B14E-19CAFC17456B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4501,14 +4510,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA26C64-A250-4FCD-AAAE-4E8B17C6BE2C}">
   <ds:schemaRefs>

--- a/Auswertung_Studie_Nutzungsform_aktualisiert.xlsx
+++ b/Auswertung_Studie_Nutzungsform_aktualisiert.xlsx
@@ -5,24 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mweiler\Documents\GitHub\MMI_Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlon\Documents\GitHub\MMI_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCC3DE1-A67D-4AD5-9841-734DEEAA4F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34D455-14AA-4E28-B777-6810A87E3E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstTry" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(Final!$D$2,Final!$D$5:$D$9,Final!$D$13:$D$14,Final!$D$16,Final!$D$18:$D$20,Final!$D$22:$D$23,Final!$D$26:$D$27)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Final!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(Final!$D$17,Final!$D$21,Final!$D$24:$D$25)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(Final!$D$17,Final!$D$21,Final!$D$24:$D$25)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">(Final!$D$3:$D$4,Final!$D$11:$D$12,Final!$D$16)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -246,9 +239,6 @@
     <t>Deutlich besser</t>
   </si>
   <si>
-    <t>Rennard</t>
-  </si>
-  <si>
     <t>Gravelbike</t>
   </si>
   <si>
@@ -271,6 +261,9 @@
   </si>
   <si>
     <t>keine</t>
+  </si>
+  <si>
+    <t>Rennrad</t>
   </si>
 </sst>
 </file>
@@ -424,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -503,7 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1312,7 +1304,7 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1347,7 @@
   <sheetData>
     <row r="1" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>20</v>
@@ -1498,25 +1490,25 @@
         <v>50</v>
       </c>
       <c r="U2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="Y2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="AA2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="15" t="s">
         <v>57</v>
@@ -1554,10 +1546,10 @@
         <v>28</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="14" t="s">
         <v>58</v>
@@ -1575,7 +1567,7 @@
         <v>59</v>
       </c>
       <c r="AV2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW2" s="13" t="s">
         <v>61</v>
@@ -3759,7 +3751,7 @@
       <c r="O23">
         <v>13</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="7">
         <v>3</v>
       </c>
       <c r="Q23" s="4"/>
@@ -4271,15 +4263,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C77408A9657D354AA2EA36B9C44B3D8B" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="35b7b4497c9b8f90ebc8a365f5a72516">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4073c1de-41dc-45a4-8e11-a80c309008b0" xmlns:ns3="013bd0e6-5a96-48c7-9517-6e2e630d5e76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10f9768fe295fb6f940ad6fb9ae135bb" ns2:_="" ns3:_="">
     <xsd:import namespace="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
@@ -4472,6 +4455,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4484,14 +4476,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E58085-4949-4757-B14E-19CAFC17456B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4510,6 +4494,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA26C64-A250-4FCD-AAAE-4E8B17C6BE2C}">
   <ds:schemaRefs>
